--- a/Assets/Test/data.xlsx
+++ b/Assets/Test/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52730250-2106-494E-9487-DE1F7E7E6C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42A40A4-F356-4C6E-BBB2-90B588C897CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61020" yWindow="7125" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61170" yWindow="4950" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEA36E3-FED6-4ED2-8549-0F7EE0E89CF6}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,6 +708,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
